--- a/Result/excel_result/Smith_50_test_2.xlsx
+++ b/Result/excel_result/Smith_50_test_2.xlsx
@@ -424,18 +424,18 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>C101_0.5.dat</t>
+          <t>U_10_0.5_Num_1.txt</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>141.2324971926633</v>
+        <v>130.7665381838739</v>
       </c>
       <c r="C1" t="n">
-        <v>92.14956903457642</v>
+        <v>7.482225656509399</v>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>[[[[0, [5, 1]], [5, [3, 4, 2, 6]], [3, []], [4, []], [1, []], [2, []], [6, []], [9, [9, 8, 10, 7]], [8, []], [10, []], [7, []]]], [[[5, [3, 4, 2, 6]]], [[9, [9, 8, 10, 7]]]]]</t>
+          <t>[[[[0, []], [3, [3, 9]], [5, [5, 8]], [7, [7, 4]], [9, []], [8, []], [4, []]], [[0, []], [10, [10]], [6, [6]], [1, [1, 2]], [2, []]]], [[[10, [10]]], [[3, [3, 9]]], [[6, [6]]], [[5, [5, 8]]], [[7, [7, 4]]], [[1, [1, 2]]]]]</t>
         </is>
       </c>
     </row>

--- a/Result/excel_result/Smith_50_test_2.xlsx
+++ b/Result/excel_result/Smith_50_test_2.xlsx
@@ -1,40 +1,246 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+  <si>
+    <t>U_15_0.5_Num_2.txt</t>
+  </si>
+  <si>
+    <t>[[[[0, [14]], [14, []], [9, [9, 3]], [1, [1, 4, 6, 15]], [4, []], [3, []], [6, []], [15, []]], [[0, [13, 2, 8]], [13, []], [2, []], [12, [12, 10, 5]], [8, []], [7, [7, 11]], [11, []], [10, []], [5, []]]], [[[9, [9, 3]]], [[12, [12]]], [[12, [10, 5]]], [[1, [6, 15]]], [[1, [1, 4]]], [[7, [7, 11]]]]]</t>
+  </si>
+  <si>
+    <t>U_15_0.5_Num_3.txt</t>
+  </si>
+  <si>
+    <t>[[[[0, []], [9, [9, 13, 6, 14]], [10, [10, 12]], [13, []], [14, []], [4, [4, 15]], [6, []], [12, []], [15, []]], [[0, [1]], [2, [2, 8]], [3, [3, 5, 11, 7]], [11, []], [5, []], [7, []], [1, []], [8, []]]], [[[9, [6, 14]]], [[9, [9, 13]]], [[2, [2, 8]]], [[10, [10, 12]]], [[3, [5, 11]]], [[3, [3, 7]]], [[4, [4, 15]]]]]</t>
+  </si>
+  <si>
+    <t>U_15_0.5_Num_4.txt</t>
+  </si>
+  <si>
+    <t>[[[[0, []], [6, [6, 1]], [13, [13, 11]], [4, [4, 10]], [10, []], [3, [3]], [1, []], [11, []]], [[0, []], [8, [8]], [15, [15]], [12, [12, 14, 9, 2]], [14, []], [5, [5, 7]], [9, []], [2, []], [7, []]]], [[[8, [8]]], [[6, [6, 1]]], [[15, [15]]], [[12, [9, 2]]], [[13, [13, 11]]], [[12, [12, 14]]], [[4, [4, 10]]], [[3, [3]]], [[5, [5, 7]]]]]</t>
+  </si>
+  <si>
+    <t>U_15_0.5_Num_5.txt</t>
+  </si>
+  <si>
+    <t>[[[[0, []], [9, [9, 4]], [2, [2, 11]], [4, []], [3, [3, 6]], [6, []], [1, [1, 10]], [11, []], [10, []]], [[0, []], [13, [13]], [8, [8, 14]], [7, [7, 12]], [14, []], [12, []], [15, [15, 5]], [5, []]]], [[[13, [13]]], [[8, [8, 14]]], [[9, [9, 4]]], [[2, [2, 11]]], [[7, [7, 12]]], [[15, [15, 5]]], [[3, [3, 6]]], [[1, [1, 10]]]]]</t>
+  </si>
+  <si>
+    <t>U_15_0.5_Num_6.txt</t>
+  </si>
+  <si>
+    <t>[[[[0, []], [10, [10, 9]], [7, [7]], [9, []], [5, [5, 3]], [15, [15, 6, 8, 14]], [6, []], [8, []], [3, []], [14, []]], [[0, []], [2, [2]], [0, [4, 11]], [11, []], [13, [13]], [4, []], [12, [12, 1]], [1, []]]], [[[10, [10, 9]]], [[2, [2]]], [[13, [13]]], [[7, [7]]], [[5, [5, 3]]], [[15, [6, 8]]], [[15, [15, 14]]], [[12, [12, 1]]]]]</t>
+  </si>
+  <si>
+    <t>U_15_0.5_Num_7.txt</t>
+  </si>
+  <si>
+    <t>U_15_0.5_Num_8.txt</t>
+  </si>
+  <si>
+    <t>U_15_0.5_Num_9.txt</t>
+  </si>
+  <si>
+    <t>U_15_1.0_Num_1.txt</t>
+  </si>
+  <si>
+    <t>U_15_1.0_Num_10.txt</t>
+  </si>
+  <si>
+    <t>U_15_1.0_Num_2.txt</t>
+  </si>
+  <si>
+    <t>U_15_1.0_Num_3.txt</t>
+  </si>
+  <si>
+    <t>U_15_1.0_Num_4.txt</t>
+  </si>
+  <si>
+    <t>U_15_1.0_Num_5.txt</t>
+  </si>
+  <si>
+    <t>U_15_1.0_Num_6.txt</t>
+  </si>
+  <si>
+    <t>U_15_1.0_Num_7.txt</t>
+  </si>
+  <si>
+    <t>U_15_1.0_Num_8.txt</t>
+  </si>
+  <si>
+    <t>U_15_1.0_Num_9.txt</t>
+  </si>
+  <si>
+    <t>U_15_1.5_Num_1.txt</t>
+  </si>
+  <si>
+    <t>U_15_1.5_Num_10.txt</t>
+  </si>
+  <si>
+    <t>U_15_1.5_Num_2.txt</t>
+  </si>
+  <si>
+    <t>U_15_1.5_Num_3.txt</t>
+  </si>
+  <si>
+    <t>U_15_1.5_Num_4.txt</t>
+  </si>
+  <si>
+    <t>U_15_1.5_Num_5.txt</t>
+  </si>
+  <si>
+    <t>U_15_1.5_Num_6.txt</t>
+  </si>
+  <si>
+    <t>U_15_1.5_Num_7.txt</t>
+  </si>
+  <si>
+    <t>U_15_1.5_Num_8.txt</t>
+  </si>
+  <si>
+    <t>U_15_1.5_Num_9.txt</t>
+  </si>
+  <si>
+    <t>U_15_2.0_Num_1.txt</t>
+  </si>
+  <si>
+    <t>U_15_2.0_Num_10.txt</t>
+  </si>
+  <si>
+    <t>U_15_2.0_Num_2.txt</t>
+  </si>
+  <si>
+    <t>U_15_2.0_Num_3.txt</t>
+  </si>
+  <si>
+    <t>U_15_2.0_Num_4.txt</t>
+  </si>
+  <si>
+    <t>U_15_2.0_Num_5.txt</t>
+  </si>
+  <si>
+    <t>U_15_2.0_Num_6.txt</t>
+  </si>
+  <si>
+    <t>U_15_2.0_Num_7.txt</t>
+  </si>
+  <si>
+    <t>U_15_2.0_Num_8.txt</t>
+  </si>
+  <si>
+    <t>U_15_2.0_Num_9.txt</t>
+  </si>
+  <si>
+    <t>U_15_2.5_Num_1.txt</t>
+  </si>
+  <si>
+    <t>U_15_2.5_Num_10.txt</t>
+  </si>
+  <si>
+    <t>U_15_2.5_Num_2.txt</t>
+  </si>
+  <si>
+    <t>U_15_2.5_Num_3.txt</t>
+  </si>
+  <si>
+    <t>U_15_2.5_Num_4.txt</t>
+  </si>
+  <si>
+    <t>U_15_2.5_Num_5.txt</t>
+  </si>
+  <si>
+    <t>U_15_2.5_Num_6.txt</t>
+  </si>
+  <si>
+    <t>U_15_2.5_Num_7.txt</t>
+  </si>
+  <si>
+    <t>U_15_2.5_Num_8.txt</t>
+  </si>
+  <si>
+    <t>U_15_2.5_Num_9.txt</t>
+  </si>
+  <si>
+    <t>U_15_3.0_Num_1.txt</t>
+  </si>
+  <si>
+    <t>U_15_3.0_Num_10.txt</t>
+  </si>
+  <si>
+    <t>U_15_3.0_Num_2.txt</t>
+  </si>
+  <si>
+    <t>U_15_3.0_Num_3.txt</t>
+  </si>
+  <si>
+    <t>U_15_3.0_Num_4.txt</t>
+  </si>
+  <si>
+    <t>U_15_3.0_Num_5.txt</t>
+  </si>
+  <si>
+    <t>U_15_3.0_Num_6.txt</t>
+  </si>
+  <si>
+    <t>U_15_3.0_Num_7.txt</t>
+  </si>
+  <si>
+    <t>U_15_3.0_Num_8.txt</t>
+  </si>
+  <si>
+    <t>U_15_3.0_Num_9.txt</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -46,81 +252,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="6">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -129,10 +288,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -170,69 +329,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -256,54 +417,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -313,7 +473,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -322,7 +482,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -331,7 +491,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -339,10 +499,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -371,7 +531,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -384,13 +544,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -408,38 +567,793 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>U_10_0.5_Num_1.txt</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>130.7665381838739</v>
-      </c>
-      <c r="C1" t="n">
-        <v>7.482225656509399</v>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>[[[[0, []], [3, [3, 9]], [5, [5, 8]], [7, [7, 4]], [9, []], [8, []], [4, []]], [[0, []], [10, [10]], [6, [6]], [1, [1, 2]], [2, []]]], [[[10, [10]]], [[3, [3, 9]]], [[6, [6]]], [[5, [5, 8]]], [[7, [7, 4]]], [[1, [1, 2]]]]]</t>
-        </is>
-      </c>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>164.28</v>
+      </c>
+      <c r="C1" s="2">
+        <v>169.6</v>
+      </c>
+      <c r="D1" s="2">
+        <v>161.61</v>
+      </c>
+      <c r="E1" s="2">
+        <v>165.93</v>
+      </c>
+      <c r="F1" s="2">
+        <v>165.93</v>
+      </c>
+      <c r="G1" s="2">
+        <v>78.96</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>190.17</v>
+      </c>
+      <c r="C2" s="2">
+        <v>191.73</v>
+      </c>
+      <c r="D2" s="2">
+        <v>184.17</v>
+      </c>
+      <c r="E2" s="2">
+        <v>190.76</v>
+      </c>
+      <c r="F2" s="2">
+        <v>185.36</v>
+      </c>
+      <c r="G2" s="2">
+        <v>72.77</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>169.66</v>
+      </c>
+      <c r="C3" s="2">
+        <v>179.49</v>
+      </c>
+      <c r="D3" s="2">
+        <v>169.93</v>
+      </c>
+      <c r="E3" s="2">
+        <v>175.64</v>
+      </c>
+      <c r="F3" s="2">
+        <v>176.49</v>
+      </c>
+      <c r="G3" s="2">
+        <v>59.83</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>169.59</v>
+      </c>
+      <c r="C4" s="3">
+        <v>178.64</v>
+      </c>
+      <c r="D4" s="3">
+        <v>175.16</v>
+      </c>
+      <c r="E4" s="3">
+        <v>169.59</v>
+      </c>
+      <c r="F4" s="3">
+        <v>169.59</v>
+      </c>
+      <c r="G4" s="3">
+        <v>55.34</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <v>185.05</v>
+      </c>
+      <c r="C5" s="3">
+        <v>182.7</v>
+      </c>
+      <c r="D5" s="3">
+        <v>193.28</v>
+      </c>
+      <c r="E5" s="3">
+        <v>184.27</v>
+      </c>
+      <c r="F5" s="3">
+        <v>185.05</v>
+      </c>
+      <c r="G5" s="3">
+        <v>89.88</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="A54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="A55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+      <c r="A56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+      <c r="A57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+      <c r="A58" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>